--- a/cta策略/result/螺纹/CCI_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/CCI_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.05597690736821903</v>
+        <v>0.2111359784109856</v>
       </c>
       <c r="D2">
-        <v>0.08752158091561567</v>
+        <v>0.7420618063853852</v>
       </c>
       <c r="E2">
-        <v>0.1302511236647244</v>
+        <v>0.839226722443403</v>
       </c>
       <c r="F2">
-        <v>0.5625</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
   </sheetData>
